--- a/JupyterNotebooks/AveragedIntensites/TRIP700A.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP700A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.9936381840330096</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.175415591871771</v>
+      </c>
+      <c r="D16">
+        <v>1.160408762032967</v>
+      </c>
+      <c r="E16">
+        <v>0.9646712100274477</v>
+      </c>
+      <c r="F16">
+        <v>0.9831432012714794</v>
+      </c>
+      <c r="G16">
+        <v>1.175415591871771</v>
+      </c>
+      <c r="H16">
+        <v>1.160408762032967</v>
+      </c>
+      <c r="I16">
+        <v>0.9601667918494853</v>
+      </c>
+      <c r="J16">
+        <v>0.9213191143260228</v>
+      </c>
+      <c r="K16">
+        <v>1.038141564909271</v>
+      </c>
+      <c r="L16">
+        <v>0.9832396425783597</v>
+      </c>
+      <c r="M16">
+        <v>1.174892722463677</v>
+      </c>
+      <c r="N16">
+        <v>1.062539986030207</v>
+      </c>
+      <c r="O16">
+        <v>1.070909691300916</v>
+      </c>
+      <c r="P16">
+        <v>1.02331323485835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/TRIP700A.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP700A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.175415591871771</v>

--- a/JupyterNotebooks/AveragedIntensites/TRIP700A.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP700A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5651960000000001</v>
+        <v>1.175415591871771</v>
       </c>
       <c r="D10">
-        <v>0.7293319999999983</v>
+        <v>1.160408762032967</v>
       </c>
       <c r="E10">
-        <v>1.792452000000003</v>
+        <v>0.9646712100274477</v>
       </c>
       <c r="F10">
-        <v>0.9803519999999986</v>
+        <v>0.9831432012714794</v>
       </c>
       <c r="G10">
-        <v>0.5651960000000001</v>
+        <v>1.175415591871771</v>
       </c>
       <c r="H10">
-        <v>0.7293319999999983</v>
+        <v>1.160408762032967</v>
       </c>
       <c r="I10">
-        <v>1.047347999999999</v>
+        <v>0.9601667918494853</v>
       </c>
       <c r="J10">
-        <v>1.157292000000001</v>
+        <v>0.9213191143260228</v>
       </c>
       <c r="K10">
-        <v>0.8337279999999985</v>
+        <v>1.038141564909271</v>
       </c>
       <c r="L10">
-        <v>0.8057599999999999</v>
+        <v>0.9832396425783597</v>
       </c>
       <c r="M10">
-        <v>0.5647799999999997</v>
+        <v>1.174892722463677</v>
       </c>
       <c r="N10">
-        <v>1.260892000000001</v>
+        <v>1.062539986030207</v>
       </c>
       <c r="O10">
-        <v>1.016833</v>
+        <v>1.070909691300916</v>
       </c>
       <c r="P10">
-        <v>0.9889324999999998</v>
+        <v>1.02331323485835</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.45</v>
+        <v>0.8792296606471938</v>
       </c>
       <c r="D11">
-        <v>0.61</v>
+        <v>0.8901937530894197</v>
       </c>
       <c r="E11">
-        <v>2.177237500000003</v>
+        <v>1.223956596199306</v>
       </c>
       <c r="F11">
-        <v>0.93</v>
+        <v>0.991572493718043</v>
       </c>
       <c r="G11">
-        <v>0.45</v>
+        <v>0.8792296606471938</v>
       </c>
       <c r="H11">
-        <v>0.61</v>
+        <v>0.8901937530894197</v>
       </c>
       <c r="I11">
-        <v>1.101662499999999</v>
+        <v>1.005462893250961</v>
       </c>
       <c r="J11">
-        <v>1.18</v>
+        <v>1.056593959752186</v>
       </c>
       <c r="K11">
-        <v>0.77</v>
+        <v>0.949508368190786</v>
       </c>
       <c r="L11">
-        <v>0.6899999999999999</v>
+        <v>0.9169978765271285</v>
       </c>
       <c r="M11">
-        <v>0.45</v>
+        <v>0.8786506806244286</v>
       </c>
       <c r="N11">
-        <v>1.393618750000002</v>
+        <v>1.057075174644363</v>
       </c>
       <c r="O11">
-        <v>1.041809375000001</v>
+        <v>0.9962381259134907</v>
       </c>
       <c r="P11">
-        <v>0.9886125000000004</v>
+        <v>0.9891894501718781</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6799373139968016</v>
+        <v>0.8775495200646271</v>
       </c>
       <c r="D12">
-        <v>0.7671106207744022</v>
+        <v>0.8899116419768084</v>
       </c>
       <c r="E12">
-        <v>1.660935064780803</v>
+        <v>1.224593306428732</v>
       </c>
       <c r="F12">
-        <v>0.953186363904</v>
+        <v>0.9920955531385723</v>
       </c>
       <c r="G12">
-        <v>0.6799373139968016</v>
+        <v>0.8775495200646271</v>
       </c>
       <c r="H12">
-        <v>0.7671106207744022</v>
+        <v>0.8899116419768084</v>
       </c>
       <c r="I12">
-        <v>1.061125174374399</v>
+        <v>1.005150463758199</v>
       </c>
       <c r="J12">
-        <v>1.100664622489596</v>
+        <v>1.057065762041839</v>
       </c>
       <c r="K12">
-        <v>0.8649486254080015</v>
+        <v>0.9492849771673302</v>
       </c>
       <c r="L12">
-        <v>0.8200762056703989</v>
+        <v>0.9173206177966033</v>
       </c>
       <c r="M12">
-        <v>0.6799242782720016</v>
+        <v>0.8769685892509357</v>
       </c>
       <c r="N12">
-        <v>1.214022842777603</v>
+        <v>1.05725247420277</v>
       </c>
       <c r="O12">
-        <v>1.015292340864002</v>
+        <v>0.9960375054021851</v>
       </c>
       <c r="P12">
-        <v>0.9884979989248003</v>
+        <v>0.9891214802965891</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9925198466865341</v>
+        <v>0.8788903103605864</v>
       </c>
       <c r="D13">
-        <v>0.9923480365276607</v>
+        <v>0.8900734918225819</v>
       </c>
       <c r="E13">
-        <v>0.9912463130490972</v>
+        <v>1.223959563745626</v>
       </c>
       <c r="F13">
-        <v>0.9909893856402903</v>
+        <v>0.9917704174351063</v>
       </c>
       <c r="G13">
-        <v>0.9925198466865341</v>
+        <v>0.8788903103605864</v>
       </c>
       <c r="H13">
-        <v>0.9923480365276607</v>
+        <v>0.8900734918225819</v>
       </c>
       <c r="I13">
-        <v>0.990870661866622</v>
+        <v>1.005334164345989</v>
       </c>
       <c r="J13">
-        <v>0.9908381835054233</v>
+        <v>1.056715228505023</v>
       </c>
       <c r="K13">
-        <v>0.9905033285288765</v>
+        <v>0.9495046666451685</v>
       </c>
       <c r="L13">
-        <v>0.9904279454116482</v>
+        <v>0.9170780259792974</v>
       </c>
       <c r="M13">
-        <v>0.9925003681086734</v>
+        <v>0.8783098151014727</v>
       </c>
       <c r="N13">
-        <v>0.9917971747883789</v>
+        <v>1.057016527784104</v>
       </c>
       <c r="O13">
-        <v>0.9917758954758955</v>
+        <v>0.9961734458409751</v>
       </c>
       <c r="P13">
-        <v>0.991217962652019</v>
+        <v>0.9891657336049222</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9568823335224449</v>
+        <v>0.5651960000000001</v>
       </c>
       <c r="D14">
-        <v>0.9731016782944861</v>
+        <v>0.7293319999999983</v>
       </c>
       <c r="E14">
-        <v>1.030981562966724</v>
+        <v>1.792452000000003</v>
       </c>
       <c r="F14">
-        <v>0.9937621446945265</v>
+        <v>0.9803519999999986</v>
       </c>
       <c r="G14">
-        <v>0.9568823335224449</v>
+        <v>0.5651960000000001</v>
       </c>
       <c r="H14">
-        <v>0.9731016782944861</v>
+        <v>0.7293319999999983</v>
       </c>
       <c r="I14">
-        <v>0.9788556014680605</v>
+        <v>1.047347999999999</v>
       </c>
       <c r="J14">
-        <v>0.9905500323813348</v>
+        <v>1.157292000000001</v>
       </c>
       <c r="K14">
-        <v>0.9866794384209309</v>
+        <v>0.8337279999999985</v>
       </c>
       <c r="L14">
-        <v>0.9838975430333876</v>
+        <v>0.8057599999999999</v>
       </c>
       <c r="M14">
-        <v>0.9568823335224449</v>
+        <v>0.5647799999999997</v>
       </c>
       <c r="N14">
-        <v>1.002041620630605</v>
+        <v>1.260892000000001</v>
       </c>
       <c r="O14">
-        <v>0.9886819298695454</v>
+        <v>1.016833</v>
       </c>
       <c r="P14">
-        <v>0.9868387918477369</v>
+        <v>0.9889324999999998</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.999519819632665</v>
+        <v>0.45</v>
       </c>
       <c r="D15">
-        <v>1.017562233915762</v>
+        <v>0.61</v>
       </c>
       <c r="E15">
-        <v>0.9828356523002032</v>
+        <v>2.177237500000003</v>
       </c>
       <c r="F15">
-        <v>0.9922549711631075</v>
+        <v>0.93</v>
       </c>
       <c r="G15">
-        <v>0.999519819632665</v>
+        <v>0.45</v>
       </c>
       <c r="H15">
-        <v>1.017562233915762</v>
+        <v>0.61</v>
       </c>
       <c r="I15">
-        <v>0.9834194394324258</v>
+        <v>1.101662499999999</v>
       </c>
       <c r="J15">
-        <v>0.9833850312650245</v>
+        <v>1.18</v>
       </c>
       <c r="K15">
-        <v>0.988071276157061</v>
+        <v>0.77</v>
       </c>
       <c r="L15">
-        <v>1.002057048397828</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M15">
-        <v>0.9994806574392824</v>
+        <v>0.45</v>
       </c>
       <c r="N15">
-        <v>1.000198943107983</v>
+        <v>1.393618750000002</v>
       </c>
       <c r="O15">
-        <v>0.9980431692529343</v>
+        <v>1.041809375000001</v>
       </c>
       <c r="P15">
-        <v>0.9936381840330096</v>
+        <v>0.9886125000000004</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.175415591871771</v>
+        <v>0.6799373139968016</v>
       </c>
       <c r="D16">
-        <v>1.160408762032967</v>
+        <v>0.7671106207744022</v>
       </c>
       <c r="E16">
-        <v>0.9646712100274477</v>
+        <v>1.660935064780803</v>
       </c>
       <c r="F16">
-        <v>0.9831432012714794</v>
+        <v>0.953186363904</v>
       </c>
       <c r="G16">
-        <v>1.175415591871771</v>
+        <v>0.6799373139968016</v>
       </c>
       <c r="H16">
-        <v>1.160408762032967</v>
+        <v>0.7671106207744022</v>
       </c>
       <c r="I16">
-        <v>0.9601667918494853</v>
+        <v>1.061125174374399</v>
       </c>
       <c r="J16">
-        <v>0.9213191143260228</v>
+        <v>1.100664622489596</v>
       </c>
       <c r="K16">
-        <v>1.038141564909271</v>
+        <v>0.8649486254080015</v>
       </c>
       <c r="L16">
-        <v>0.9832396425783597</v>
+        <v>0.8200762056703989</v>
       </c>
       <c r="M16">
-        <v>1.174892722463677</v>
+        <v>0.6799242782720016</v>
       </c>
       <c r="N16">
-        <v>1.062539986030207</v>
+        <v>1.214022842777603</v>
       </c>
       <c r="O16">
-        <v>1.070909691300916</v>
+        <v>1.015292340864002</v>
       </c>
       <c r="P16">
-        <v>1.02331323485835</v>
+        <v>0.9884979989248003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9925198466865341</v>
+      </c>
+      <c r="D17">
+        <v>0.9923480365276607</v>
+      </c>
+      <c r="E17">
+        <v>0.9912463130490972</v>
+      </c>
+      <c r="F17">
+        <v>0.9909893856402903</v>
+      </c>
+      <c r="G17">
+        <v>0.9925198466865341</v>
+      </c>
+      <c r="H17">
+        <v>0.9923480365276607</v>
+      </c>
+      <c r="I17">
+        <v>0.990870661866622</v>
+      </c>
+      <c r="J17">
+        <v>0.9908381835054233</v>
+      </c>
+      <c r="K17">
+        <v>0.9905033285288765</v>
+      </c>
+      <c r="L17">
+        <v>0.9904279454116482</v>
+      </c>
+      <c r="M17">
+        <v>0.9925003681086734</v>
+      </c>
+      <c r="N17">
+        <v>0.9917971747883789</v>
+      </c>
+      <c r="O17">
+        <v>0.9917758954758955</v>
+      </c>
+      <c r="P17">
+        <v>0.991217962652019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9568823335224449</v>
+      </c>
+      <c r="D18">
+        <v>0.9731016782944861</v>
+      </c>
+      <c r="E18">
+        <v>1.030981562966724</v>
+      </c>
+      <c r="F18">
+        <v>0.9937621446945265</v>
+      </c>
+      <c r="G18">
+        <v>0.9568823335224449</v>
+      </c>
+      <c r="H18">
+        <v>0.9731016782944861</v>
+      </c>
+      <c r="I18">
+        <v>0.9788556014680605</v>
+      </c>
+      <c r="J18">
+        <v>0.9905500323813348</v>
+      </c>
+      <c r="K18">
+        <v>0.9866794384209309</v>
+      </c>
+      <c r="L18">
+        <v>0.9838975430333876</v>
+      </c>
+      <c r="M18">
+        <v>0.9568823335224449</v>
+      </c>
+      <c r="N18">
+        <v>1.002041620630605</v>
+      </c>
+      <c r="O18">
+        <v>0.9886819298695454</v>
+      </c>
+      <c r="P18">
+        <v>0.9868387918477369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.999519819632665</v>
+      </c>
+      <c r="D19">
+        <v>1.017562233915762</v>
+      </c>
+      <c r="E19">
+        <v>0.9828356523002032</v>
+      </c>
+      <c r="F19">
+        <v>0.9922549711631075</v>
+      </c>
+      <c r="G19">
+        <v>0.999519819632665</v>
+      </c>
+      <c r="H19">
+        <v>1.017562233915762</v>
+      </c>
+      <c r="I19">
+        <v>0.9834194394324258</v>
+      </c>
+      <c r="J19">
+        <v>0.9833850312650245</v>
+      </c>
+      <c r="K19">
+        <v>0.988071276157061</v>
+      </c>
+      <c r="L19">
+        <v>1.002057048397828</v>
+      </c>
+      <c r="M19">
+        <v>0.9994806574392824</v>
+      </c>
+      <c r="N19">
+        <v>1.000198943107983</v>
+      </c>
+      <c r="O19">
+        <v>0.9980431692529343</v>
+      </c>
+      <c r="P19">
+        <v>0.9936381840330096</v>
       </c>
     </row>
   </sheetData>
